--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1194105.924181651</v>
+        <v>-1197003.352439289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="G2" t="n">
-        <v>13.88719820851069</v>
+        <v>16.03944114782543</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>13.48628024463568</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.03944114782579</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>16.03944114782543</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.03944114782579</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.03944114782543</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>23.27607579000192</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>46.49613729883792</v>
+      </c>
+      <c r="F6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>48.84734916635357</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>69.11209925255308</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547972</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>98.74883103803253</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>8.037790645995694</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.2685648207206</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
-        <v>84.48026621731192</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>51.82194179032387</v>
       </c>
       <c r="V10" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>9.943518040492393</v>
+        <v>306.5255887226671</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.86095153585646</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334179</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>56.45470063320619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>222.1187859487662</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512079</v>
+        <v>87.8977843151208</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853814</v>
+        <v>12.76005920853817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>59.58929631959759</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>124.5605677313493</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295023</v>
+        <v>60.32014642295162</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464168</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452996</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221564</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,10 +2090,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295001</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
@@ -2251,13 +2251,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551029</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2296,13 +2296,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894974</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W23" t="n">
         <v>317.630766365199</v>
@@ -2384,7 +2384,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424825</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453049</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295161</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3743,7 +3743,7 @@
         <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E41" t="n">
         <v>350.3201677200479</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947556</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221378</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.42978033085562</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="C2" t="n">
-        <v>22.42978033085562</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="D2" t="n">
-        <v>22.42978033085562</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42978033085562</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="F2" t="n">
-        <v>15.48427958165215</v>
+        <v>17.6582623486367</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="K2" t="n">
-        <v>10.43619098039763</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="L2" t="n">
-        <v>28.46417319695932</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="M2" t="n">
-        <v>46.49215541352101</v>
+        <v>19.48478886032381</v>
       </c>
       <c r="N2" t="n">
-        <v>64.5201376300827</v>
+        <v>37.51277107688509</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812804</v>
+        <v>55.54075329344637</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="T2" t="n">
-        <v>54.44630890829773</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="U2" t="n">
-        <v>40.82380361068593</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="V2" t="n">
-        <v>22.42978033085562</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="W2" t="n">
-        <v>22.42978033085562</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="X2" t="n">
-        <v>22.42978033085562</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.42978033085562</v>
+        <v>72.84033218812638</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.6582623486371</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6582623486371</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="D3" t="n">
-        <v>17.6582623486371</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="E3" t="n">
-        <v>1.456806643762561</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456806643762561</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456806643762561</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456806643762561</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032425</v>
+        <v>19.48478886032381</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688594</v>
+        <v>37.51277107688509</v>
       </c>
       <c r="N3" t="n">
-        <v>54.81234997156636</v>
+        <v>55.54075329344637</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218812804</v>
+        <v>62.29484089541064</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829773</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829773</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829773</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829773</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829773</v>
+        <v>56.63887648325221</v>
       </c>
       <c r="W3" t="n">
-        <v>54.44630890829773</v>
+        <v>56.63887648325221</v>
       </c>
       <c r="X3" t="n">
-        <v>36.05228562846742</v>
+        <v>56.63887648325221</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.05228562846742</v>
+        <v>38.24485320342232</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.6582623486371</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6582623486371</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762561</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762561</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762561</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762561</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762561</v>
+        <v>36.05228562846659</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762561</v>
+        <v>19.85082992359242</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762561</v>
+        <v>1.456806643762528</v>
       </c>
       <c r="K4" t="n">
-        <v>18.75638553844298</v>
+        <v>19.48478886032381</v>
       </c>
       <c r="L4" t="n">
-        <v>36.78436775500467</v>
+        <v>37.51277107688509</v>
       </c>
       <c r="M4" t="n">
-        <v>54.81234997156636</v>
+        <v>37.51277107688509</v>
       </c>
       <c r="N4" t="n">
-        <v>72.84033218812804</v>
+        <v>54.8123499715651</v>
       </c>
       <c r="O4" t="n">
-        <v>72.84033218812804</v>
+        <v>54.8123499715651</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="R4" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="S4" t="n">
-        <v>72.84033218812804</v>
+        <v>72.84033218812638</v>
       </c>
       <c r="T4" t="n">
-        <v>72.84033218812804</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="U4" t="n">
-        <v>72.84033218812804</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="V4" t="n">
-        <v>72.84033218812804</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="W4" t="n">
-        <v>54.44630890829773</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="X4" t="n">
-        <v>54.44630890829773</v>
+        <v>54.44630890829649</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.05228562846742</v>
+        <v>54.44630890829649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125.3708535457444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="C5" t="n">
-        <v>75.07286664965892</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="D5" t="n">
-        <v>75.07286664965892</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E5" t="n">
-        <v>24.77487975357343</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F5" t="n">
-        <v>17.82937900436996</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G5" t="n">
         <v>3.98360056216997</v>
@@ -4565,22 +4565,22 @@
         <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>35.44654979802559</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
-        <v>35.44654979802559</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>51.28885723793834</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>100.5859141947917</v>
+        <v>69.12296495893611</v>
       </c>
       <c r="N5" t="n">
-        <v>149.8829711516451</v>
+        <v>118.4200219157895</v>
       </c>
       <c r="O5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
         <v>199.1800281084985</v>
@@ -4592,25 +4592,25 @@
         <v>199.1800281084985</v>
       </c>
       <c r="S5" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T5" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U5" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V5" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W5" t="n">
-        <v>125.3708535457444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="X5" t="n">
-        <v>125.3708535457444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="Y5" t="n">
-        <v>125.3708535457444</v>
+        <v>154.8775612504264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="C6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="D6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="E6" t="n">
-        <v>48.28606742024204</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F6" t="n">
-        <v>48.28606742024204</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4650,16 +4650,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="T6" t="n">
-        <v>148.882041212413</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="U6" t="n">
-        <v>148.882041212413</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="V6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="W6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="X6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.58405431632752</v>
+        <v>151.5453696056924</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.58405431632752</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C7" t="n">
-        <v>98.58405431632752</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D7" t="n">
-        <v>98.58405431632752</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E7" t="n">
-        <v>98.58405431632752</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F7" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G7" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H7" t="n">
         <v>3.98360056216997</v>
@@ -4732,13 +4732,13 @@
         <v>102.5777144758767</v>
       </c>
       <c r="M7" t="n">
-        <v>102.5777144758767</v>
+        <v>149.8829711516451</v>
       </c>
       <c r="N7" t="n">
-        <v>151.8747714327301</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="O7" t="n">
-        <v>151.8747714327301</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P7" t="n">
         <v>199.1800281084985</v>
@@ -4750,7 +4750,7 @@
         <v>199.1800281084985</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="T7" t="n">
         <v>148.882041212413</v>
@@ -4759,16 +4759,16 @@
         <v>148.882041212413</v>
       </c>
       <c r="V7" t="n">
-        <v>98.58405431632752</v>
+        <v>148.882041212413</v>
       </c>
       <c r="W7" t="n">
-        <v>98.58405431632752</v>
+        <v>148.882041212413</v>
       </c>
       <c r="X7" t="n">
-        <v>98.58405431632752</v>
+        <v>148.882041212413</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.58405431632752</v>
+        <v>148.882041212413</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.0243253124951</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6835685788047</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="D8" t="n">
-        <v>142.6835685788047</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43845734150826</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="F8" t="n">
-        <v>22.49295659230479</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993874</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993874</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687534</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773379</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083924</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320668</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416789</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>418.5145477870879</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="T8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="U8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>418.5145477870879</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="X8" t="n">
-        <v>305.2694365497915</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.0243253124951</v>
+        <v>305.2694365497923</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.9604180251009</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="C9" t="n">
-        <v>108.7153067878045</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="D9" t="n">
-        <v>108.7153067878045</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="E9" t="n">
-        <v>108.7153067878045</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993874</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993874</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993874</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387147</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403945</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640687</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953186</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996937</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996937</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996937</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>335.2055292623973</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>221.9604180251009</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="W9" t="n">
-        <v>221.9604180251009</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="X9" t="n">
-        <v>221.9604180251009</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="Y9" t="n">
-        <v>221.9604180251009</v>
+        <v>411.5072838557631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.2141240472903</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="C10" t="n">
-        <v>122.2141240472903</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="D10" t="n">
-        <v>122.2141240472903</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="E10" t="n">
-        <v>122.2141240472903</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993874</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993874</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993874</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993874</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>15.36860208584594</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>126.3601356095201</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M10" t="n">
-        <v>237.3516691331943</v>
+        <v>230.9520798573427</v>
       </c>
       <c r="N10" t="n">
-        <v>348.3432026568685</v>
+        <v>341.9436133810171</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568685</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="P10" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q10" t="n">
-        <v>434.0379487615921</v>
+        <v>434.037948761593</v>
       </c>
       <c r="R10" t="n">
-        <v>348.7043465218831</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="S10" t="n">
-        <v>348.7043465218831</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="T10" t="n">
-        <v>348.7043465218831</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="U10" t="n">
-        <v>348.7043465218831</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="V10" t="n">
-        <v>235.4592352845867</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="W10" t="n">
-        <v>235.4592352845867</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="X10" t="n">
-        <v>235.4592352845867</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4592352845867</v>
+        <v>41.9572193019013</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1969.42314369238</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C11" t="n">
-        <v>1600.460626751968</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D11" t="n">
-        <v>1242.194928145218</v>
+        <v>787.119828012364</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.628073993393</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3119.628073993393</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2746.162315732313</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2356.022983756502</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,19 +5121,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.477435687269</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>386.5412527593621</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>236.4246133470264</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>236.4246133470264</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>236.4246133470264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>236.4246133470264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5200,49 +5200,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.621931827995</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.676735765777</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1004.259565728816</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>776.2700148307991</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y13" t="n">
-        <v>555.477435687269</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.509947535069</v>
+        <v>1896.469528424811</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.547430594657</v>
+        <v>1527.507011484399</v>
       </c>
       <c r="D14" t="n">
-        <v>957.2817319879068</v>
+        <v>1169.241312877648</v>
       </c>
       <c r="E14" t="n">
-        <v>900.2567818533552</v>
+        <v>783.4530602794041</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637476</v>
+        <v>783.4530602794041</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169308</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773522</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056001</v>
+        <v>666.2644720055991</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645701</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275289</v>
+        <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235394</v>
+        <v>2364.220579235393</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163078</v>
+        <v>2922.039463163076</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140408</v>
+        <v>3363.623974140406</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049518</v>
+        <v>3647.062805049516</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584654</v>
+        <v>3726.527800584652</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045199</v>
+        <v>3623.805524045197</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.28167157758</v>
+        <v>3623.805524045197</v>
       </c>
       <c r="U14" t="n">
-        <v>3165.777765179653</v>
+        <v>3623.805524045197</v>
       </c>
       <c r="V14" t="n">
-        <v>2834.714877836082</v>
+        <v>3399.443113995938</v>
       </c>
       <c r="W14" t="n">
-        <v>2834.714877836082</v>
+        <v>3046.674458725824</v>
       </c>
       <c r="X14" t="n">
-        <v>2461.249119575003</v>
+        <v>2673.208700464744</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.109787599191</v>
+        <v>2283.069368488932</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J15" t="n">
-        <v>184.662920980762</v>
+        <v>184.6629209807619</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628292</v>
+        <v>451.051499062829</v>
       </c>
       <c r="L15" t="n">
-        <v>855.56635784171</v>
+        <v>855.5663578417095</v>
       </c>
       <c r="M15" t="n">
         <v>1346.972986475666</v>
       </c>
       <c r="N15" t="n">
-        <v>1574.181838018301</v>
+        <v>1865.794331259251</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.582213319535</v>
+        <v>2217.128454733394</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.340332577116</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.214335272918</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1000.832878570447</v>
+        <v>616.1044064814421</v>
       </c>
       <c r="C16" t="n">
-        <v>831.8966956425405</v>
+        <v>447.1682235535352</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7800562302048</v>
+        <v>386.9770151499013</v>
       </c>
       <c r="E16" t="n">
-        <v>533.8669626478116</v>
+        <v>386.9770151499013</v>
       </c>
       <c r="F16" t="n">
         <v>386.9770151499013</v>
@@ -5428,58 +5428,58 @@
         <v>219.4231602062505</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525474</v>
+        <v>129.9765865525473</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923175</v>
+        <v>350.9282837923168</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553112</v>
+        <v>689.1968198553104</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229308</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135875</v>
+        <v>1990.231654135874</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="T16" t="n">
-        <v>2080.068878389596</v>
+        <v>1858.938821053359</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.974137788783</v>
+        <v>1569.844080452546</v>
       </c>
       <c r="V16" t="n">
-        <v>1536.289649582896</v>
+        <v>1315.159592246659</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.470894298704</v>
+        <v>1025.742422209699</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.481343400687</v>
+        <v>797.7528713116818</v>
       </c>
       <c r="Y16" t="n">
-        <v>1182.481343400687</v>
+        <v>797.7528713116818</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076832</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J18" t="n">
-        <v>207.5578399063076</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K18" t="n">
-        <v>510.5988892561719</v>
+        <v>519.5985603334501</v>
       </c>
       <c r="L18" t="n">
-        <v>510.5988892561719</v>
+        <v>973.3971899277774</v>
       </c>
       <c r="M18" t="n">
-        <v>1059.517353866461</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.372701792863</v>
+        <v>1662.137679823383</v>
       </c>
       <c r="O18" t="n">
-        <v>2143.777656741113</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076832</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400161</v>
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="L21" t="n">
-        <v>808.1559021931422</v>
+        <v>538.7790385694434</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.074366803431</v>
+        <v>1087.697503179732</v>
       </c>
       <c r="N21" t="n">
-        <v>1934.929714729833</v>
+        <v>1665.552851106135</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2171.957806054384</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609053</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028688</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,10 +5950,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746738</v>
@@ -6002,37 +6002,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L24" t="n">
-        <v>519.5985603334502</v>
+        <v>535.3638672866915</v>
       </c>
       <c r="M24" t="n">
-        <v>1068.517024943739</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.372372870142</v>
+        <v>1662.137679823383</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6245,22 +6245,22 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>1665.552851106135</v>
       </c>
       <c r="O27" t="n">
-        <v>2322.031270281989</v>
+        <v>2171.957806054385</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315385</v>
@@ -6379,52 +6379,52 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
         <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6461,19 +6461,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233287</v>
@@ -6482,7 +6482,7 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6540,28 +6540,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6694118551806</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897935</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
@@ -6625,46 +6625,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6683,25 +6683,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050962</v>
@@ -6713,28 +6713,28 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7509472448914</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443566</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902742</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040889</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354969</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313932</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.58138725498</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.274605188202</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>1797.129953114605</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902783</v>
@@ -7117,7 +7117,7 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966195</v>
@@ -7129,10 +7129,10 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073042</v>
@@ -7254,22 +7254,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>421.6357602913728</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>875.4343898857002</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7397,10 +7397,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,7 +7424,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612703</v>
@@ -7494,19 +7494,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749436</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897924</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443611</v>
@@ -7594,22 +7594,22 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7631,13 +7631,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479667</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7734,19 +7734,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.862419750211</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K46" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7828,28 +7828,28 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107695</v>
+        <v>60.90377530107713</v>
       </c>
       <c r="K2" t="n">
-        <v>49.0980281584823</v>
+        <v>40.02794296996234</v>
       </c>
       <c r="L2" t="n">
-        <v>30.59377888689545</v>
+        <v>12.3836958398638</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.805846119713472</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855322</v>
+        <v>45.15099615439192</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621809</v>
+        <v>69.44336957621832</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.2817975558757</v>
+        <v>55.28179755587583</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924309</v>
+        <v>15.54112977924329</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957005</v>
+        <v>43.30284318957021</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71651726602163</v>
+        <v>73.45227819721453</v>
       </c>
       <c r="L4" t="n">
-        <v>58.69319715026981</v>
+        <v>58.69319715026955</v>
       </c>
       <c r="M4" t="n">
-        <v>57.60265575364025</v>
+        <v>39.39257270660839</v>
       </c>
       <c r="N4" t="n">
-        <v>48.72909356691342</v>
+        <v>47.99333263571995</v>
       </c>
       <c r="O4" t="n">
-        <v>48.7075174940617</v>
+        <v>48.70751749406185</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728765</v>
+        <v>79.14229504431937</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.41764983347228</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11.08342642379245</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>44.67424062394</v>
       </c>
       <c r="Q5" t="n">
         <v>50.01861771953256</v>
@@ -8380,7 +8380,7 @@
         <v>78.28218310839884</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>74.5276255683506</v>
       </c>
       <c r="N7" t="n">
         <v>67.96672485263689</v>
@@ -8389,7 +8389,7 @@
         <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
-        <v>98.95658856384321</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946475</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771693</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867677</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821503</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>35.72733729809444</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274682</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4537900083356</v>
+        <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4136727881175</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996885</v>
+        <v>23.56588972173872</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>371.9868520317694</v>
+        <v>75.40478134959473</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>72.89406337846432</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.5414662356954</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>325.4756694390556</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389931</v>
+        <v>28.90056660389939</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>105.6334725213687</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>89.02617669861476</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434397</v>
+        <v>91.91693778434399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396089</v>
+        <v>82.30038209396093</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>161.9624306052418</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.577404873387422e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.740829702612245e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.096101070492296e-12</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1244981.422026696</v>
+        <v>1244981.422026697</v>
       </c>
     </row>
     <row r="12">
@@ -26317,31 +26317,31 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>170498.5494854604</v>
+        <v>170498.5494854603</v>
       </c>
       <c r="F2" t="n">
-        <v>179697.4860699472</v>
+        <v>179697.4860699471</v>
       </c>
       <c r="G2" t="n">
         <v>205260.442466071</v>
       </c>
       <c r="H2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
       <c r="J2" t="n">
         <v>205260.442466071</v>
       </c>
       <c r="K2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="L2" t="n">
         <v>205260.442466071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
         <v>205260.442466071</v>
@@ -26350,7 +26350,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
         <v>205260.442466071</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321827</v>
+        <v>345405.597032182</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876481</v>
+        <v>50948.63134876547</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513204</v>
+        <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.857642954</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654427</v>
+        <v>93369.88484654378</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975322</v>
+        <v>143964.0818975327</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.734734607656719e-10</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757641</v>
+        <v>4764.558968757675</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908476</v>
+        <v>8128.948714908642</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194621</v>
+        <v>41060.19902194636</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613212</v>
+        <v>24549.15438613192</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.5945687591</v>
+        <v>31434.5945687592</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348159.5487171866</v>
+        <v>348159.5487171867</v>
       </c>
       <c r="C4" t="n">
         <v>332624.1818074201</v>
       </c>
       <c r="D4" t="n">
-        <v>304852.0125307827</v>
+        <v>304852.0125307826</v>
       </c>
       <c r="E4" t="n">
         <v>14040.01085717763</v>
       </c>
       <c r="F4" t="n">
-        <v>14091.87843567591</v>
+        <v>14091.87843567592</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109635</v>
       </c>
       <c r="H4" t="n">
+        <v>45229.37087109624</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45229.37087109623</v>
+      </c>
+      <c r="J4" t="n">
         <v>45229.37087109619</v>
       </c>
-      <c r="I4" t="n">
-        <v>45229.37087109627</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45229.37087109617</v>
-      </c>
       <c r="K4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109623</v>
       </c>
       <c r="L4" t="n">
-        <v>45229.37087109622</v>
+        <v>45229.37087109628</v>
       </c>
       <c r="M4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109619</v>
       </c>
       <c r="N4" t="n">
         <v>45229.37087109617</v>
       </c>
       <c r="O4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="P4" t="n">
-        <v>45229.37087109611</v>
+        <v>45229.37087109619</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.8888242568</v>
+        <v>42410.88882425676</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172269</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390712</v>
+        <v>82183.39720390709</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26494,13 +26494,13 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215527</v>
@@ -26509,7 +26509,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-530715.5921075554</v>
+        <v>-530715.5921075548</v>
       </c>
       <c r="C6" t="n">
-        <v>-223619.0538805962</v>
+        <v>-223619.0538805969</v>
       </c>
       <c r="D6" t="n">
-        <v>-237648.4592515667</v>
+        <v>-237648.4592515669</v>
       </c>
       <c r="E6" t="n">
-        <v>-625628.6595760646</v>
+        <v>-625976.2785058704</v>
       </c>
       <c r="F6" t="n">
-        <v>-9947.674416180147</v>
+        <v>-10203.30398014092</v>
       </c>
       <c r="G6" t="n">
-        <v>-79039.44440471266</v>
+        <v>-79039.44440471329</v>
       </c>
       <c r="H6" t="n">
-        <v>64924.6374928197</v>
+        <v>64924.63749281957</v>
       </c>
       <c r="I6" t="n">
-        <v>64924.63749281931</v>
+        <v>64924.63749281937</v>
       </c>
       <c r="J6" t="n">
-        <v>60160.07852406194</v>
+        <v>60160.07852406183</v>
       </c>
       <c r="K6" t="n">
-        <v>56795.68877791113</v>
+        <v>56795.68877791076</v>
       </c>
       <c r="L6" t="n">
-        <v>23864.4384708734</v>
+        <v>23864.43847087309</v>
       </c>
       <c r="M6" t="n">
-        <v>-114325.007445482</v>
+        <v>-114325.0074454819</v>
       </c>
       <c r="N6" t="n">
-        <v>40375.48310668726</v>
+        <v>40375.48310668743</v>
       </c>
       <c r="O6" t="n">
-        <v>33490.04292406034</v>
+        <v>33490.04292406021</v>
       </c>
       <c r="P6" t="n">
-        <v>64924.63749281963</v>
+        <v>64924.6374928195</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228097</v>
+        <v>352.1154025228091</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985019</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808275</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461635</v>
+        <v>931.631950146163</v>
       </c>
       <c r="G4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="I4" t="n">
         <v>1062.255112188953</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1062.255112188953</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1062.255112188952</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188953</v>
@@ -26817,7 +26817,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.527666881884215e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221428</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.669775429036235e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228097</v>
+        <v>352.1154025228091</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475835</v>
+        <v>44.74454074475892</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093388</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947964</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497632</v>
+        <v>81.79094321497587</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118479</v>
+        <v>106.5922268118484</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009261</v>
+        <v>31.58492398009303</v>
       </c>
       <c r="D4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773693</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438707</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="G4" t="n">
         <v>130.6231620427891</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703247</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009261</v>
+        <v>31.58492398009326</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779857</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773693</v>
+        <v>719.2887952773696</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438707</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="O4" t="n">
         <v>130.6231620427891</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009261</v>
+        <v>31.58492398009303</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773693</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438707</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="O4" t="n">
         <v>130.6231620427891</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>364.523758616449</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>347.0628087239759</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>388.6659626946798</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>397.8477570606853</v>
       </c>
       <c r="H2" t="n">
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517702</v>
+        <v>155.9033104517703</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140718</v>
+        <v>60.95024697140732</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365427</v>
+        <v>176.7634676365428</v>
       </c>
       <c r="T2" t="n">
-        <v>198.6892432023512</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
-        <v>237.7461295186709</v>
+        <v>251.2324097633065</v>
       </c>
       <c r="V2" t="n">
-        <v>309.5421754231029</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3231006028353</v>
+        <v>148.3231006028358</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>141.6056393075752</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>63.320162004207</v>
+        <v>45.11007895717544</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.92373565171587</v>
+        <v>53.13381869874797</v>
       </c>
       <c r="S3" t="n">
         <v>157.6151642200256</v>
@@ -27515,16 +27515,16 @@
         <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>216.7611460015999</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5629021564455</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.4726127302728</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.6218971349053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>132.5760318703866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.2238795995376</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>120.3159886721304</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46735248683851</v>
+        <v>30.25726943980699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.99261747075013</v>
+        <v>32.99261747075021</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545823</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2325691137615</v>
+        <v>207.0224860667299</v>
       </c>
       <c r="U4" t="n">
         <v>286.2843950546034</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.312915289559</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.3745703050628</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>315.4778847438829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.8880345935584</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1353630451372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27664,7 +27664,7 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>122.8695009220968</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>325.9648929274111</v>
+        <v>305.3815265279217</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>111.148943156563</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
-        <v>92.63045169952113</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0065332792414</v>
+        <v>10.21152625211678</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.972537992446</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4518140715032</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.2753302804353</v>
       </c>
       <c r="H7" t="n">
-        <v>112.0049594242485</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
         <v>133.9289553808794</v>
@@ -27822,16 +27822,16 @@
         <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T7" t="n">
-        <v>175.0928090677838</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
         <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
-        <v>202.3426362967034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>316.425542604654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473384</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>337.7639464891583</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101213</v>
+        <v>53.29137858519758</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924896</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311302</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339232</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>46.32038135535134</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>128.2816284863351</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749222</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,10 +27986,10 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855988</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.30838789800782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1324099710516</v>
@@ -28032,7 +28032,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.20872343153313</v>
+        <v>26.5763295239214</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>96.94141504241699</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>234.4502565086721</v>
       </c>
       <c r="V10" t="n">
-        <v>140.0249831989046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605503</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605503</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221449</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221103</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K34" t="n">
-        <v>31.610202352214</v>
+        <v>31.6102023522092</v>
       </c>
       <c r="L34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221201</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="E41" t="n">
         <v>31.61020235221391</v>
@@ -30475,7 +30475,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41553930662436</v>
+        <v>1.415539306624357</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396673</v>
+        <v>14.4968919239667</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863567</v>
+        <v>54.57257911863558</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256093</v>
+        <v>120.1421292256092</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750185</v>
+        <v>180.0619080750182</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301238</v>
+        <v>223.3827191301234</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743047</v>
+        <v>248.5563162743044</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436229</v>
+        <v>247.6231466436225</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490052</v>
+        <v>238.5024483490049</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167163</v>
+        <v>203.556321716716</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982314</v>
+        <v>152.8623202982312</v>
       </c>
       <c r="R2" t="n">
-        <v>88.9188709697425</v>
+        <v>88.91887096974236</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970263</v>
+        <v>32.25660194970257</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748137</v>
+        <v>6.196523314748127</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299487</v>
+        <v>0.1132431445299485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660435</v>
+        <v>0.7573802997660423</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898369</v>
+        <v>7.314699210898357</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720808</v>
+        <v>26.07647084720804</v>
       </c>
       <c r="J3" t="n">
-        <v>71.555829110791</v>
+        <v>71.55582911079087</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951159</v>
+        <v>122.3003091951157</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269062</v>
+        <v>156.7644628269058</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690503</v>
+        <v>160.3441169690499</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8160341991721</v>
+        <v>149.5517951303649</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914765</v>
+        <v>149.4185551534993</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>144.6264188211138</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645146</v>
+        <v>96.67893089645131</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389525</v>
+        <v>47.02401545389517</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381225</v>
+        <v>14.06800688381222</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004358</v>
+        <v>3.052774103004353</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039762</v>
+        <v>0.04982765130039754</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706403</v>
+        <v>0.6349622012706393</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660788</v>
+        <v>5.645391207660779</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730254</v>
+        <v>19.0950451073025</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983427</v>
+        <v>44.8918276298342</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035256</v>
+        <v>73.77106302035244</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800049</v>
+        <v>94.40156217800033</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099682</v>
+        <v>99.53321124099666</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535179</v>
+        <v>97.16653394535163</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778108</v>
+        <v>89.74902095778094</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185996</v>
+        <v>76.79579205185983</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094426</v>
+        <v>53.16942578094417</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258715</v>
+        <v>28.5502095225871</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305288</v>
+        <v>11.06565945305286</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520008</v>
+        <v>2.713020314520004</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748951</v>
+        <v>0.03463430188748946</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647242</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889108</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137789</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172215</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307194</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.048789576915</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>336.0874769754129</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215143</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>322.4930563808908</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.240362480537</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567326</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612408</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508308</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517794</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444353</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.2595155368702</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798992</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837909</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>227.4909302215366</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.4543722082567</v>
+        <v>216.6986083828519</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628786</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177394</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515091</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>19.02217175778919</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730407</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261822</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071345</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674347</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>25.81952303220729</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968441</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>99.7501524642107</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.5846540641929</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020391</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>121.3548803218739</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187683</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097379</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832442</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9625228696316</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.66843283710321</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493467</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601101</v>
+        <v>4.709819673601099</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226728</v>
+        <v>48.23444073226727</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665066</v>
+        <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223018</v>
+        <v>399.7400575223016</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058365</v>
+        <v>599.1067243058362</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418063</v>
+        <v>743.244868141806</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622098</v>
+        <v>827.0031237622095</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098291</v>
+        <v>840.3848989098287</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304581</v>
+        <v>793.5516295304577</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384307</v>
+        <v>677.2779563384305</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775912</v>
+        <v>508.607539277591</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718454</v>
+        <v>295.8532100718453</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121852</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118883</v>
+        <v>20.61723562118882</v>
       </c>
       <c r="U14" t="n">
-        <v>0.376785573888088</v>
+        <v>0.3767855738880878</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681949</v>
+        <v>2.519975686681948</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137567</v>
+        <v>24.33765992137566</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146186</v>
+        <v>86.76232079146183</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667363</v>
+        <v>238.0824397667362</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744269</v>
+        <v>406.9208107744267</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332891</v>
+        <v>547.1552472332888</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755096</v>
+        <v>638.5043658755094</v>
       </c>
       <c r="N15" t="n">
-        <v>360.8456025304392</v>
+        <v>655.4036765111967</v>
       </c>
       <c r="O15" t="n">
-        <v>599.566320506297</v>
+        <v>497.4791974486301</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068365</v>
+        <v>481.2048309068363</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999625</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731127</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762302</v>
+        <v>46.807443127623</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131891</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
         <v>0.1657878741238125</v>
@@ -32148,43 +32148,43 @@
         <v>2.112662964244429</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482776</v>
+        <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291431</v>
+        <v>63.53353714291429</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720812</v>
+        <v>149.3652715720811</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913073</v>
+        <v>245.4530243913072</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023037</v>
+        <v>314.0953647023036</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587881</v>
+        <v>331.169522658788</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102409</v>
+        <v>323.2950516102408</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824764</v>
+        <v>298.6153069824763</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118898</v>
+        <v>255.5169825118897</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150495</v>
+        <v>176.9067142150494</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320859</v>
+        <v>94.99300928320855</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869609</v>
+        <v>36.81795365869608</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408014</v>
+        <v>9.02683266540801</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860599</v>
@@ -32312,16 +32312,16 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
-        <v>250.6532134658499</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
         <v>443.9435090247269</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>254.1392278303042</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160627</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32549,13 +32549,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>430.0264422644115</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879668</v>
@@ -32564,16 +32564,16 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>521.5364117268593</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>593.4871659531825</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O24" t="n">
-        <v>434.0683069289812</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>366.6975250682018</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>521.5364117268584</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,16 +33260,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>472.9693813169756</v>
+        <v>593.4871659531818</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33281,10 +33281,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>223.8954149958798</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>593.4871659531819</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33518,10 +33518,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33737,25 +33737,25 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>306.8030521674222</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,25 +33974,25 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>344.9911857499013</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34150,7 +34150,7 @@
         <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972021</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
         <v>322.770693358156</v>
@@ -34214,22 +34214,22 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>501.5641647828768</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34381,7 +34381,7 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565688</v>
       </c>
       <c r="P44" t="n">
         <v>738.8984405829625</v>
@@ -34454,22 +34454,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>591.0665301174799</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.070085188520274</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927318522</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.47432211583839</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="N3" t="n">
-        <v>17.4743221158388</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703201</v>
+        <v>6.822310709054821</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.65201140678357</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.4743221158388</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="L4" t="n">
-        <v>18.21008304703201</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="M4" t="n">
-        <v>18.21008304703201</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21008304703201</v>
+        <v>17.47432211583839</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.2100830470316</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>31.78075680389457</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>49.79500702712463</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>42.86418322768703</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35100,7 +35100,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>47.78308755128119</v>
       </c>
       <c r="N7" t="n">
         <v>49.79500702712463</v>
@@ -35109,7 +35109,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>47.78308755128121</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573883</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692776</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481401</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920411</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526745</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>83.80515100391676</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>85.35689629951825</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249234</v>
+        <v>85.35689629951858</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184342</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340917</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.464231591769759</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.464231591769935</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836618</v>
+        <v>101.1186240836619</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956155</v>
+        <v>218.6941529956153</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608559</v>
+        <v>379.0168732608557</v>
       </c>
       <c r="L14" t="n">
-        <v>507.478453171819</v>
+        <v>507.4784531718188</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349371</v>
+        <v>596.6568905349368</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132382</v>
+        <v>610.9718353132378</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087713</v>
+        <v>563.453418108771</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831612</v>
+        <v>446.044960583161</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031417</v>
+        <v>286.3018494031415</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771329</v>
+        <v>80.26767225771317</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000696</v>
+        <v>111.2448131000695</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000679</v>
+        <v>269.0793718000677</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534149</v>
+        <v>408.6008674534147</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534913</v>
+        <v>496.3703319534911</v>
       </c>
       <c r="N15" t="n">
-        <v>229.5038904471059</v>
+        <v>524.0619644278635</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618525</v>
+        <v>354.8829530041857</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925062</v>
+        <v>347.230423492506</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.690911813941</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.7800391091487</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540838</v>
+        <v>56.00609145540832</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654244</v>
+        <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626199</v>
+        <v>341.6853899626198</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206287</v>
+        <v>370.7533996206286</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894696</v>
+        <v>367.4272239894694</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965161</v>
+        <v>323.200434896516</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767833</v>
+        <v>252.7955417767832</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335471</v>
+        <v>90.74467096335501</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>123.8155867991832</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>112.0051939082859</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327294</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>291.4720624845373</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659484</v>
@@ -36212,16 +36212,16 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>387.5620043125291</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414982</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817348</v>
@@ -36288,13 +36288,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>454.9327861733084</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O24" t="n">
-        <v>291.4720624845368</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641552</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>224.1012806237574</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>387.5620043125282</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817348</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>334.4150015371014</v>
+        <v>454.9327861733077</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36929,10 +36929,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
         <v>432.4942538895098</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>86.05397602152078</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>454.9327861733078</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37166,10 +37166,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.125680141493</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895079</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>164.2068077229777</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37622,25 +37622,25 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>207.1497467755423</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37862,22 +37862,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>359.4301308608585</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38102,22 +38102,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>459.7248180341467</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
